--- a/data/trans_bre/P23_DUKE_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,6%</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>-3,79%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,0%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 4,58</t>
+          <t>-10,43; 5,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 6,7</t>
+          <t>-10,35; 4,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 21,44</t>
+          <t>-4,74; 10,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,06; 41,13</t>
+          <t>-8,45; 6,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,48; 64,87</t>
+          <t>-11,3; 5,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 186,71</t>
+          <t>-11,22; 5,4</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 12,64</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 8,0</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-4,06%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 10,38</t>
+          <t>5,95; 23,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 10,48</t>
+          <t>-3,31; 14,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 8,38</t>
+          <t>-8,4; 12,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 82,63</t>
+          <t>-12,2; 5,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 103,5</t>
+          <t>7,18; 32,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 64,41</t>
+          <t>-3,45; 18,67</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; 17,34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-13,41; 6,32</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>26,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,82</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-10,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>59,16%</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-45,02%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,36%</t>
+          <t>-1,72%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-11,46%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-6,9%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 17,49</t>
+          <t>-2,56; 63,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,2; 3,64</t>
+          <t>-15,58; 16,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 15,93</t>
+          <t>-28,28; 6,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-60,76; 665,72</t>
+          <t>-21,42; 2,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-79,13; 31,68</t>
+          <t>-3,04; 241,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-76,46; 149,43</t>
+          <t>-15,87; 19,46</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-30,19; 6,86</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-22,36; 2,94</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-2,99%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 5,86</t>
+          <t>1,84; 16,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 5,02</t>
+          <t>-4,67; 5,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 12,46</t>
+          <t>-5,07; 6,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 47,51</t>
+          <t>-8,67; 2,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 38,19</t>
+          <t>2,16; 21,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 92,97</t>
+          <t>-5,19; 6,98</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 8,54</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 2,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_DUKE_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,4</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,75%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,79%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-1,0%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.182487680598766</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.500579402915781</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.244718711436589</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.3379301497746345</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.02476937639173636</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.02804111307495224</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.03693539003388328</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.003811929369013811</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,43; 5,1</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,35; 4,81</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 10,32</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 6,63</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-11,3; 5,99</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-11,22; 5,4</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-5,18; 12,64</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; 8,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.28760209290226</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.465402659984639</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.062473317653938</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.771977115140166</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1126211930770854</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1029392427083745</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.04292348423023268</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.08388273242792679</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.07321969428275</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.870985212642651</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.82973257820476</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.376199910162579</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.06041333025601373</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.06929423128784344</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1304907588265273</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.0874446090941093</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13,44</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,71</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,6</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,06%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-4,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>5,95; 23,55</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 14,46</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,4; 12,81</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,2; 5,31</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>7,18; 32,93</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; 18,67</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-9,53; 17,34</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-13,41; 6,32</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>15.0980679081526</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.98130610252784</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.5785178959716863</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-3.148091473127368</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1971844252562738</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.08312422961057013</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.007053816350094945</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.03596551602205575</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>26,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-10,73</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,73</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>44,84%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-1,72%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-11,46%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-6,9%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>6.029773841289429</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.771900277670485</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.04357910676686</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-12.040580619517</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.07236079694165251</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.01746525802521547</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1271150549499177</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1335864624378555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 63,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,58; 16,53</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-28,28; 6,67</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-21,42; 2,98</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 241,74</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-15,87; 19,46</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-30,19; 6,86</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-22,36; 2,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>28.55120923534017</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.2118717642645</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.90674242875583</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.025631991414628</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.4373337360109495</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2111875044298965</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1448818109562399</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.0849754138178903</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,69</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-2,99%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>28.00382240004262</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.277004583017095</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-8.480129693355408</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7.350370044105392</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.4878374286364833</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.0240013479046876</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.09151582526903378</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.07511308736489131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 16,02</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 5,93</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 6,98</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 2,5</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 21,81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-5,19; 6,98</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-5,66; 8,54</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-9,4; 2,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.9633642173900244</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.71211423136636</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-25.0794166108838</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-22.66138074989441</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.02074353872684942</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1616188517535173</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2652254725422257</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2305418518247584</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>63.77582565383821</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.44135531888478</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.46695868308106</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.06085550329113</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.424642008731311</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1569676468272571</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1103012860695987</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.02062012317080267</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>8.261513974604306</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.317164294930007</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5483488041036488</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.296994039279088</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1032015963419239</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.01502122755529438</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.006382799912716247</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.02570983362510332</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.027872211266166</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.655212420156507</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.607374566212412</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.2225692653727</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.02373458518592782</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.04041832760701104</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.06296648340118949</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.08988436798665345</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.0814990941986</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.356684003608787</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.679936040755829</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.163620950308339</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2375718629066447</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.0883988388606364</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.08224036415883948</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.03661688206340599</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
